--- a/CR - Cost Report/BOM/SU/SUA0500_to_SUA0800.xlsx
+++ b/CR - Cost Report/BOM/SU/SUA0500_to_SUA0800.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\CR - Cost Report\BOM\SU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre-Alexis\Documents\GitHub\STUF2019\CR - Cost Report\BOM\SU\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9190"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
   <si>
     <t>System</t>
   </si>
@@ -60,18 +60,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Name of the part</t>
-  </si>
-  <si>
-    <t>m or b</t>
-  </si>
-  <si>
-    <t>Short description of the part</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number </t>
-  </si>
-  <si>
     <t>Shocks front</t>
   </si>
   <si>
@@ -105,9 +93,6 @@
     <t>SU_05003</t>
   </si>
   <si>
-    <t>SU_05004</t>
-  </si>
-  <si>
     <t>SU_06001</t>
   </si>
   <si>
@@ -123,25 +108,16 @@
     <t>SU_06003</t>
   </si>
   <si>
-    <t>SU_06004</t>
-  </si>
-  <si>
     <t>SU_07002</t>
   </si>
   <si>
     <t>SU_07003</t>
   </si>
   <si>
-    <t>SU_07004</t>
-  </si>
-  <si>
     <t>SU_08002</t>
   </si>
   <si>
     <t>SU_08003</t>
-  </si>
-  <si>
-    <t>SU_08004</t>
   </si>
   <si>
     <r>
@@ -158,11 +134,53 @@
       <t>(25 caractères max!)</t>
     </r>
   </si>
+  <si>
+    <t>Damper</t>
+  </si>
+  <si>
+    <t>Springs</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Spring mounted on the damper</t>
+  </si>
+  <si>
+    <t>Ohlins TTX 25</t>
+  </si>
+  <si>
+    <t>Front Rocker</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Sheet of metal for the rocker</t>
+  </si>
+  <si>
+    <t>M8 type 20 mm spacer</t>
+  </si>
+  <si>
+    <t>Front Rocker Spacer 1</t>
+  </si>
+  <si>
+    <t>Front Rocker Spacer 2</t>
+  </si>
+  <si>
+    <t>Damper Spacer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M6 type 20 mm spacer </t>
+  </si>
+  <si>
+    <t>Rear Rocker</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -565,26 +583,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="26.21875" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="45.88671875" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="14.6328125" customWidth="1"/>
+    <col min="2" max="2" width="26.1796875" customWidth="1"/>
+    <col min="3" max="3" width="22.453125" customWidth="1"/>
+    <col min="4" max="4" width="23.36328125" customWidth="1"/>
+    <col min="5" max="5" width="45.90625" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" customWidth="1"/>
+    <col min="7" max="7" width="16.90625" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="19.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -592,7 +610,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -607,368 +625,288 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>10</v>
+        <v>32</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>10</v>
+        <v>31</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="4">
         <v>8</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="G5" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="4">
+        <v>4</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>10</v>
+        <v>34</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4">
+        <v>2</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="4">
         <v>8</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="G9" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>10</v>
+        <v>32</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="4">
         <v>8</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="4" t="s">
+    <row r="14" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>10</v>
+        <v>35</v>
+      </c>
+      <c r="F15" s="4">
+        <v>4</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="D16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4">
+        <v>2</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="4">
         <v>8</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>34</v>
+      <c r="G17" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/CR - Cost Report/BOM/SU/SUA0500_to_SUA0800.xlsx
+++ b/CR - Cost Report/BOM/SU/SUA0500_to_SUA0800.xlsx
@@ -144,9 +144,6 @@
     <t>b</t>
   </si>
   <si>
-    <t>Spring mounted on the damper</t>
-  </si>
-  <si>
     <t>Ohlins TTX 25</t>
   </si>
   <si>
@@ -175,6 +172,9 @@
   </si>
   <si>
     <t>Rear Rocker</t>
+  </si>
+  <si>
+    <t>Springs mounted on the dampers</t>
   </si>
 </sst>
 </file>
@@ -587,7 +587,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -650,7 +650,7 @@
         <v>30</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" s="4">
         <v>2</v>
@@ -669,7 +669,7 @@
         <v>30</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F4" s="4">
         <v>2</v>
@@ -682,13 +682,13 @@
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F5" s="4">
         <v>8</v>
@@ -716,13 +716,13 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="F7" s="4">
         <v>4</v>
@@ -735,10 +735,10 @@
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4">
@@ -752,13 +752,13 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F9" s="4">
         <v>8</v>
@@ -792,7 +792,7 @@
         <v>30</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" s="4">
         <v>2</v>
@@ -811,7 +811,7 @@
         <v>30</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F12" s="4">
         <v>2</v>
@@ -824,13 +824,13 @@
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F13" s="4">
         <v>8</v>
@@ -858,13 +858,13 @@
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="F15" s="4">
         <v>4</v>
@@ -877,10 +877,10 @@
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4">
@@ -894,13 +894,13 @@
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F17" s="4">
         <v>8</v>

--- a/CR - Cost Report/BOM/SU/SUA0500_to_SUA0800.xlsx
+++ b/CR - Cost Report/BOM/SU/SUA0500_to_SUA0800.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre-Alexis\Documents\GitHub\STUF2019\CR - Cost Report\BOM\SU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\CR - Cost Report\BOM\SU\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
   <si>
     <t>System</t>
   </si>
@@ -176,11 +176,14 @@
   <si>
     <t>Springs mounted on the dampers</t>
   </si>
+  <si>
+    <t>For the pivot</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -587,22 +590,22 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.6328125" customWidth="1"/>
-    <col min="2" max="2" width="26.1796875" customWidth="1"/>
-    <col min="3" max="3" width="22.453125" customWidth="1"/>
-    <col min="4" max="4" width="23.36328125" customWidth="1"/>
-    <col min="5" max="5" width="45.90625" customWidth="1"/>
-    <col min="6" max="6" width="14.81640625" customWidth="1"/>
-    <col min="7" max="7" width="16.90625" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.21875" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="45.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -625,7 +628,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -640,7 +643,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
@@ -659,7 +662,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
@@ -678,7 +681,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
@@ -697,7 +700,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -712,7 +715,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
@@ -731,7 +734,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
@@ -740,7 +743,9 @@
       <c r="D8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="F8" s="4">
         <v>2</v>
       </c>
@@ -748,7 +753,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
@@ -767,7 +772,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -782,7 +787,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
@@ -801,7 +806,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
@@ -820,7 +825,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
@@ -839,7 +844,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -854,7 +859,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
@@ -873,7 +878,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
@@ -882,7 +887,9 @@
       <c r="D16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="F16" s="4">
         <v>2</v>
       </c>
@@ -890,7 +897,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">

--- a/CR - Cost Report/BOM/SU/SUA0500_to_SUA0800.xlsx
+++ b/CR - Cost Report/BOM/SU/SUA0500_to_SUA0800.xlsx
@@ -72,18 +72,6 @@
     <t>Bell cranks rear</t>
   </si>
   <si>
-    <t>SU_A0005</t>
-  </si>
-  <si>
-    <t>SU_A0006</t>
-  </si>
-  <si>
-    <t>SU_A0007</t>
-  </si>
-  <si>
-    <t>SU_A0008</t>
-  </si>
-  <si>
     <t>SU_05001</t>
   </si>
   <si>
@@ -178,6 +166,18 @@
   </si>
   <si>
     <t>For the pivot</t>
+  </si>
+  <si>
+    <t>SU_A0500</t>
+  </si>
+  <si>
+    <t>SU_A0600</t>
+  </si>
+  <si>
+    <t>SU_A0700</t>
+  </si>
+  <si>
+    <t>SU_A0800</t>
   </si>
 </sst>
 </file>
@@ -590,7 +590,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -613,7 +613,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -640,64 +640,64 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F3" s="4">
         <v>2</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F4" s="4">
         <v>2</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F5" s="4">
         <v>8</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -712,64 +712,64 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F7" s="4">
         <v>4</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F8" s="4">
         <v>2</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F9" s="4">
         <v>8</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -784,64 +784,64 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F11" s="4">
         <v>2</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F12" s="4">
         <v>2</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F13" s="4">
         <v>8</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -856,64 +856,64 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F15" s="4">
         <v>4</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F16" s="4">
         <v>2</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F17" s="4">
         <v>8</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/CR - Cost Report/BOM/SU/SUA0500_to_SUA0800.xlsx
+++ b/CR - Cost Report/BOM/SU/SUA0500_to_SUA0800.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
   <si>
     <t>System</t>
   </si>
@@ -178,6 +178,12 @@
   </si>
   <si>
     <t>SU_A0800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rear rocker spacer 1 </t>
+  </si>
+  <si>
+    <t>Rear rocker spacer 2</t>
   </si>
 </sst>
 </file>
@@ -590,7 +596,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -882,7 +888,7 @@
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>29</v>
@@ -901,7 +907,7 @@
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>29</v>
